--- a/Souq/src/price/Souq/excel_104_camisas.xlsx
+++ b/Souq/src/price/Souq/excel_104_camisas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,1963 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CAMISA GLAUCIA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-glaucia-04-26-01-315-049.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>659,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>318,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CAMISA PAM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-pam-04-26-01-367-004.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CAMISA TEREZA CRISTINA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-emily-04-26-01-411-042.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CAMISA WANDA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-wanda-04-26-01-421-002.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>848,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>408,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CAMISA XAIANE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-wanda-04-26-01-422-035.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CAMISA SELENA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-selena-04-26-01-423-001.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>518,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CAMISA ADRIANE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-adriane-04-26-01-424-006.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>848,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>408,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CAMISA ADRIANE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-adriane-04-26-01-424-008.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>848,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>408,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CAMISA FRANCINE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-francine-04-26-01-425-016.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CAMISA MICAELA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-micaela-04-26-01-428-053.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CAMISA SUYANE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-suyane-04-26-01-429-054.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>428,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CAMISÃO GRACA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-graca-04-26-13-274-054.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CAMISA RAQUEL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-raquel-04-26-01-404-053.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>388,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CAMISAO SHIRA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-shira-04-26-13-244-054.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>279,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CAMISA POLIANA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-poliana-04-26-01-389-001.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CAMISA ARABELA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-arabela-04-26-01-342-053.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CAMISA MATILDE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-matilde-04-26-01-403-004.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>728,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>358,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CAMISA MONA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-mona-04-26-01-339-006.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CAMISA ADINA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-adina-04-26-01-340-035.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CAMISAO SOLANGE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-solange-04-26-13-239-053.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>289,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CAMISAO IASMIM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-iasmim-04-26-13-249-054.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CAMISA LIDIA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-lidia-04-26-01-329-002.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>179,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CAMISAO ALLEY</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-alley-04-26-13-250-054.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CAMISA NANDA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-nanda-04-26-01-351-054.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>219,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CAMISAO MARIETA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-marieta-04-26-13-261-009.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>449,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CAMISA VALENTINA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-valentina-04-26-01-328-007.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CAMISAO MARA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-mara-04-26-13-262-009.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CAMISA SATI</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-sati-04-26-01-359-004.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>499,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CAMISA GLAUCIA CAPRI</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-glaucia-capri-04-26-01-366-054.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CAMISAO ESTEFANIA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-estefania-04-26-13-234-013.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>227,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CAMISÃO AMELIA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camis-o-amelia-04-23-15-007-054.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CAMISA SARJA ZAYA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-sarja-zaya-04-25-05-003-035.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CAMISA CONSTANTINE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-constantine-04-26-01-312-004.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>137,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CAMISA SARJA SOL</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-sarja-sol-04-25-05-001-007.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>429,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CAMISA IKAT CIBELE VERMELHO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-ikat-cibele-04-26-01-299-005.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>629,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>189,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CAMISAO NEUSA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-neusa-04-26-13-260-004.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>759,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>368,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CAMISA ALICIA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-alicia-04-26-01-336-054.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CAMISA IKAT CIBELE BEGE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-ikat-cibele-04-26-01-299-007.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>629,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>189,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CAMISA ELIANE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-eliane-04-26-01-333-054.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CAMISA MELINDA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-melinda-04-26-01-371-054.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CAMISA GUIDA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-guida-04-26-01-341-001.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CAMISA MILENA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-milena-04-26-01-346-035.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CAMISAO YARA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-yara-04-26-13-240-001.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CAMISA ELSA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-elsa-04-26-01-338-002.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>209,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CAMISAO HARI</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-hari-04-26-13-245-006.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>759,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>368,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CAMISA PAULINE</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-pauline-04-26-01-321-035.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>459,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CAMISA CARMELA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-carmela-04-26-01-344-057.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>559,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>258,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CAMISA PAULA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-paula-04-26-01-383-054.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>449,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CAMISA EKATERINA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-ekaterina-04-26-01-350-054.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CAMISAO SOLANGE I</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisao-solange-i-04-26-13-241-002.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>599,00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CAMISA MONET</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-monet-04-26-01-094-035.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>469,00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>137,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CAMISA BRIE</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-brie-04-26-01-373-008.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CAMISAS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/outlet/roupas/camisas.html?p=1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CAMISA LETICE</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/camisa-letice-04-26-01-370-054.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
